--- a/example1_cor.xlsx
+++ b/example1_cor.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1425">
   <si>
     <t>label</t>
   </si>
@@ -4007,6 +4007,291 @@
   </si>
   <si>
     <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS-kid-Glucose-1</t>
+  </si>
+  <si>
+    <t>HPLCMS-kid-Glucose-2</t>
+  </si>
+  <si>
+    <t>HPLCMS-kid-Glucose-3</t>
+  </si>
+  <si>
+    <t>M1-brain-neg</t>
+  </si>
+  <si>
+    <t>M2-brain-neg</t>
+  </si>
+  <si>
+    <t>M3-brain-neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS-kid-Glucose-1</t>
+  </si>
+  <si>
+    <t>HPLCMS-kid-Glucose-2</t>
+  </si>
+  <si>
+    <t>HPLCMS-kid-Glucose-3</t>
+  </si>
+  <si>
+    <t>M1-brain-neg</t>
+  </si>
+  <si>
+    <t>M2-brain-neg</t>
+  </si>
+  <si>
+    <t>M3-brain-neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS-kid-Glucose-1</t>
+  </si>
+  <si>
+    <t>HPLCMS-kid-Glucose-2</t>
+  </si>
+  <si>
+    <t>HPLCMS-kid-Glucose-3</t>
+  </si>
+  <si>
+    <t>M1-brain-neg</t>
+  </si>
+  <si>
+    <t>M2-brain-neg</t>
+  </si>
+  <si>
+    <t>M3-brain-neg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>HPLCMS-kid-Glucose-1</t>
+  </si>
+  <si>
+    <t>HPLCMS-kid-Glucose-2</t>
+  </si>
+  <si>
+    <t>HPLCMS-kid-Glucose-3</t>
+  </si>
+  <si>
+    <t>M1-brain-neg</t>
+  </si>
+  <si>
+    <t>M2-brain-neg</t>
+  </si>
+  <si>
+    <t>M3-brain-neg</t>
   </si>
 </sst>
 </file>
@@ -4055,88 +4340,88 @@
   <dimension ref="A1:T6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.046875" customWidth="true"/>
-    <col min="2" max="2" width="11.93359375" customWidth="true"/>
-    <col min="3" max="3" width="7.37890625" customWidth="true"/>
-    <col min="4" max="4" width="14.046875" customWidth="true"/>
+    <col min="1" max="1" width="5.5703125" customWidth="true"/>
+    <col min="2" max="2" width="12.85546875" customWidth="true"/>
+    <col min="3" max="3" width="8" customWidth="true"/>
+    <col min="4" max="4" width="15.140625" customWidth="true"/>
     <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.37890625" customWidth="true"/>
-    <col min="8" max="8" width="11.6015625" customWidth="true"/>
-    <col min="9" max="9" width="9.82421875" customWidth="true"/>
-    <col min="10" max="10" width="11.37890625" customWidth="true"/>
-    <col min="11" max="11" width="7.82421875" customWidth="true"/>
-    <col min="12" max="12" width="13.37890625" customWidth="true"/>
+    <col min="6" max="6" width="7" customWidth="true"/>
+    <col min="7" max="7" width="11.28515625" customWidth="true"/>
+    <col min="8" max="8" width="12.5703125" customWidth="true"/>
+    <col min="9" max="9" width="10.5703125" customWidth="true"/>
+    <col min="10" max="10" width="12.28515625" customWidth="true"/>
+    <col min="11" max="11" width="8.140625" customWidth="true"/>
+    <col min="12" max="12" width="14.5703125" customWidth="true"/>
     <col min="13" max="13" width="8.7109375" customWidth="true"/>
     <col min="14" max="14" width="10.7109375" customWidth="true"/>
-    <col min="15" max="15" width="20.7109375" customWidth="true"/>
-    <col min="16" max="16" width="20.7109375" customWidth="true"/>
-    <col min="17" max="17" width="20.7109375" customWidth="true"/>
-    <col min="18" max="18" width="12.82421875" customWidth="true"/>
-    <col min="19" max="19" width="12.82421875" customWidth="true"/>
-    <col min="20" max="20" width="12.82421875" customWidth="true"/>
+    <col min="15" max="15" width="21.140625" customWidth="true"/>
+    <col min="16" max="16" width="21.140625" customWidth="true"/>
+    <col min="17" max="17" width="21.140625" customWidth="true"/>
+    <col min="18" max="18" width="13.140625" customWidth="true"/>
+    <col min="19" max="19" width="13.140625" customWidth="true"/>
+    <col min="20" max="20" width="13.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1235</v>
+        <v>1330</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1236</v>
+        <v>1331</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1237</v>
+        <v>1332</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1238</v>
+        <v>1333</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1239</v>
+        <v>1334</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1240</v>
+        <v>1335</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1241</v>
+        <v>1336</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1242</v>
+        <v>1337</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1248</v>
+        <v>1343</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1250</v>
+        <v>1345</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1252</v>
+        <v>1347</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1254</v>
+        <v>1349</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1255</v>
+        <v>1350</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1256</v>
+        <v>1351</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1257</v>
+        <v>1352</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1258</v>
+        <v>1353</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1259</v>
+        <v>1354</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1260</v>
+        <v>1355</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1261</v>
+        <v>1356</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1262</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="2">
@@ -4160,16 +4445,16 @@
         <v>0.82511599999999996</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1243</v>
+        <v>1338</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1249</v>
+        <v>1344</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1251</v>
+        <v>1346</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>1253</v>
+        <v>1348</v>
       </c>
       <c r="L2" s="0">
         <v>0.57199999999999995</v>
@@ -4220,16 +4505,16 @@
         <v>0.83560000000000001</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>1244</v>
+        <v>1339</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>1249</v>
+        <v>1344</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>1251</v>
+        <v>1346</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>1253</v>
+        <v>1348</v>
       </c>
       <c r="L3" s="0">
         <v>0.57299999999999995</v>
@@ -4280,16 +4565,16 @@
         <v>0.82877400000000001</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>1245</v>
+        <v>1340</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>1249</v>
+        <v>1344</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>1251</v>
+        <v>1346</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>1253</v>
+        <v>1348</v>
       </c>
       <c r="L4" s="0">
         <v>0.57199999999999995</v>
@@ -4340,16 +4625,16 @@
         <v>0.83857400000000004</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>1246</v>
+        <v>1341</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>1249</v>
+        <v>1344</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>1251</v>
+        <v>1346</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>1253</v>
+        <v>1348</v>
       </c>
       <c r="L5" s="0">
         <v>0.57699999999999996</v>
@@ -4400,16 +4685,16 @@
         <v>0.83599100000000004</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>1247</v>
+        <v>1342</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>1249</v>
+        <v>1344</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>1251</v>
+        <v>1346</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>1253</v>
+        <v>1348</v>
       </c>
       <c r="L6" s="0">
         <v>0.58199999999999996</v>
@@ -4448,88 +4733,88 @@
   <dimension ref="A1:T6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.046875" customWidth="true"/>
-    <col min="2" max="2" width="11.93359375" customWidth="true"/>
-    <col min="3" max="3" width="7.37890625" customWidth="true"/>
-    <col min="4" max="4" width="14.046875" customWidth="true"/>
+    <col min="1" max="1" width="5.5703125" customWidth="true"/>
+    <col min="2" max="2" width="12.85546875" customWidth="true"/>
+    <col min="3" max="3" width="8" customWidth="true"/>
+    <col min="4" max="4" width="15.140625" customWidth="true"/>
     <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.37890625" customWidth="true"/>
-    <col min="8" max="8" width="11.6015625" customWidth="true"/>
-    <col min="9" max="9" width="9.82421875" customWidth="true"/>
-    <col min="10" max="10" width="11.37890625" customWidth="true"/>
-    <col min="11" max="11" width="7.82421875" customWidth="true"/>
-    <col min="12" max="12" width="13.37890625" customWidth="true"/>
+    <col min="6" max="6" width="7" customWidth="true"/>
+    <col min="7" max="7" width="11.28515625" customWidth="true"/>
+    <col min="8" max="8" width="12.5703125" customWidth="true"/>
+    <col min="9" max="9" width="10.5703125" customWidth="true"/>
+    <col min="10" max="10" width="12.28515625" customWidth="true"/>
+    <col min="11" max="11" width="8.140625" customWidth="true"/>
+    <col min="12" max="12" width="14.5703125" customWidth="true"/>
     <col min="13" max="13" width="8.7109375" customWidth="true"/>
     <col min="14" max="14" width="10.7109375" customWidth="true"/>
-    <col min="15" max="15" width="20.7109375" customWidth="true"/>
-    <col min="16" max="16" width="20.7109375" customWidth="true"/>
-    <col min="17" max="17" width="20.7109375" customWidth="true"/>
-    <col min="18" max="18" width="12.82421875" customWidth="true"/>
-    <col min="19" max="19" width="12.82421875" customWidth="true"/>
-    <col min="20" max="20" width="12.82421875" customWidth="true"/>
+    <col min="15" max="15" width="21.140625" customWidth="true"/>
+    <col min="16" max="16" width="21.140625" customWidth="true"/>
+    <col min="17" max="17" width="21.140625" customWidth="true"/>
+    <col min="18" max="18" width="13.140625" customWidth="true"/>
+    <col min="19" max="19" width="13.140625" customWidth="true"/>
+    <col min="20" max="20" width="13.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1263</v>
+        <v>1358</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1264</v>
+        <v>1359</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1265</v>
+        <v>1360</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1266</v>
+        <v>1361</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1267</v>
+        <v>1362</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1268</v>
+        <v>1363</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1269</v>
+        <v>1364</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1270</v>
+        <v>1365</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1276</v>
+        <v>1371</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1278</v>
+        <v>1373</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1280</v>
+        <v>1375</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1282</v>
+        <v>1377</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1283</v>
+        <v>1378</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1284</v>
+        <v>1379</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1285</v>
+        <v>1380</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1286</v>
+        <v>1381</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1287</v>
+        <v>1382</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1288</v>
+        <v>1383</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1289</v>
+        <v>1384</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1290</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="2">
@@ -4553,16 +4838,16 @@
         <v>0.82511599999999996</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1271</v>
+        <v>1366</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1277</v>
+        <v>1372</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1279</v>
+        <v>1374</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>1281</v>
+        <v>1376</v>
       </c>
       <c r="L2" s="0">
         <v>0.57199999999999995</v>
@@ -4613,16 +4898,16 @@
         <v>0.83560000000000001</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>1272</v>
+        <v>1367</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>1277</v>
+        <v>1372</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>1279</v>
+        <v>1374</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>1281</v>
+        <v>1376</v>
       </c>
       <c r="L3" s="0">
         <v>0.57299999999999995</v>
@@ -4673,16 +4958,16 @@
         <v>0.82877400000000001</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>1273</v>
+        <v>1368</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>1277</v>
+        <v>1372</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>1279</v>
+        <v>1374</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>1281</v>
+        <v>1376</v>
       </c>
       <c r="L4" s="0">
         <v>0.57199999999999995</v>
@@ -4733,16 +5018,16 @@
         <v>0.83857400000000004</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>1274</v>
+        <v>1369</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>1277</v>
+        <v>1372</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>1279</v>
+        <v>1374</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>1281</v>
+        <v>1376</v>
       </c>
       <c r="L5" s="0">
         <v>0.57699999999999996</v>
@@ -4793,16 +5078,16 @@
         <v>0.83599100000000004</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>1275</v>
+        <v>1370</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>1277</v>
+        <v>1372</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>1279</v>
+        <v>1374</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>1281</v>
+        <v>1376</v>
       </c>
       <c r="L6" s="0">
         <v>0.58199999999999996</v>
@@ -4841,88 +5126,88 @@
   <dimension ref="A1:T6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.046875" customWidth="true"/>
-    <col min="2" max="2" width="11.93359375" customWidth="true"/>
-    <col min="3" max="3" width="7.37890625" customWidth="true"/>
-    <col min="4" max="4" width="14.046875" customWidth="true"/>
+    <col min="1" max="1" width="5.5703125" customWidth="true"/>
+    <col min="2" max="2" width="12.85546875" customWidth="true"/>
+    <col min="3" max="3" width="8" customWidth="true"/>
+    <col min="4" max="4" width="15.140625" customWidth="true"/>
     <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.37890625" customWidth="true"/>
-    <col min="8" max="8" width="11.6015625" customWidth="true"/>
-    <col min="9" max="9" width="9.82421875" customWidth="true"/>
-    <col min="10" max="10" width="11.37890625" customWidth="true"/>
-    <col min="11" max="11" width="7.82421875" customWidth="true"/>
-    <col min="12" max="12" width="13.37890625" customWidth="true"/>
+    <col min="6" max="6" width="7" customWidth="true"/>
+    <col min="7" max="7" width="11.28515625" customWidth="true"/>
+    <col min="8" max="8" width="12.5703125" customWidth="true"/>
+    <col min="9" max="9" width="10.5703125" customWidth="true"/>
+    <col min="10" max="10" width="12.28515625" customWidth="true"/>
+    <col min="11" max="11" width="8.140625" customWidth="true"/>
+    <col min="12" max="12" width="14.5703125" customWidth="true"/>
     <col min="13" max="13" width="8.7109375" customWidth="true"/>
     <col min="14" max="14" width="10.7109375" customWidth="true"/>
-    <col min="15" max="15" width="20.7109375" customWidth="true"/>
-    <col min="16" max="16" width="20.7109375" customWidth="true"/>
-    <col min="17" max="17" width="20.7109375" customWidth="true"/>
-    <col min="18" max="18" width="12.82421875" customWidth="true"/>
-    <col min="19" max="19" width="12.82421875" customWidth="true"/>
-    <col min="20" max="20" width="12.82421875" customWidth="true"/>
+    <col min="15" max="15" width="21.140625" customWidth="true"/>
+    <col min="16" max="16" width="21.140625" customWidth="true"/>
+    <col min="17" max="17" width="21.140625" customWidth="true"/>
+    <col min="18" max="18" width="13.140625" customWidth="true"/>
+    <col min="19" max="19" width="13.140625" customWidth="true"/>
+    <col min="20" max="20" width="13.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1291</v>
+        <v>1386</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1292</v>
+        <v>1387</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1293</v>
+        <v>1388</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1294</v>
+        <v>1389</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1295</v>
+        <v>1390</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1296</v>
+        <v>1391</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1297</v>
+        <v>1392</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1298</v>
+        <v>1393</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1304</v>
+        <v>1399</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1306</v>
+        <v>1401</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1308</v>
+        <v>1403</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1310</v>
+        <v>1405</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1311</v>
+        <v>1406</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1312</v>
+        <v>1407</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1313</v>
+        <v>1408</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1314</v>
+        <v>1409</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1315</v>
+        <v>1410</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1316</v>
+        <v>1411</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1317</v>
+        <v>1412</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1318</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="2">
@@ -4946,16 +5231,16 @@
         <v>0.82511599999999996</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1299</v>
+        <v>1394</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1305</v>
+        <v>1400</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1307</v>
+        <v>1402</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>1309</v>
+        <v>1404</v>
       </c>
       <c r="L2" s="0">
         <v>0.57199999999999995</v>
@@ -5006,16 +5291,16 @@
         <v>0.83560000000000001</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>1300</v>
+        <v>1395</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>1305</v>
+        <v>1400</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>1307</v>
+        <v>1402</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>1309</v>
+        <v>1404</v>
       </c>
       <c r="L3" s="0">
         <v>0.57299999999999995</v>
@@ -5066,16 +5351,16 @@
         <v>0.82877400000000001</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>1301</v>
+        <v>1396</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>1305</v>
+        <v>1400</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>1307</v>
+        <v>1402</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>1309</v>
+        <v>1404</v>
       </c>
       <c r="L4" s="0">
         <v>0.57199999999999995</v>
@@ -5126,16 +5411,16 @@
         <v>0.83857400000000004</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>1302</v>
+        <v>1397</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>1305</v>
+        <v>1400</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>1307</v>
+        <v>1402</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>1309</v>
+        <v>1404</v>
       </c>
       <c r="L5" s="0">
         <v>0.57699999999999996</v>
@@ -5186,16 +5471,16 @@
         <v>0.83599100000000004</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>1303</v>
+        <v>1398</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>1305</v>
+        <v>1400</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>1307</v>
+        <v>1402</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>1309</v>
+        <v>1404</v>
       </c>
       <c r="L6" s="0">
         <v>0.58199999999999996</v>
@@ -5234,44 +5519,44 @@
   <dimension ref="A1:I2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.93359375" customWidth="true"/>
-    <col min="2" max="2" width="6.046875" customWidth="true"/>
-    <col min="3" max="3" width="7.6015625" customWidth="true"/>
-    <col min="4" max="4" width="20.7109375" customWidth="true"/>
-    <col min="5" max="5" width="20.7109375" customWidth="true"/>
-    <col min="6" max="6" width="20.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.82421875" customWidth="true"/>
-    <col min="8" max="8" width="12.82421875" customWidth="true"/>
-    <col min="9" max="9" width="12.82421875" customWidth="true"/>
+    <col min="1" max="1" width="3" customWidth="true"/>
+    <col min="2" max="2" width="6.42578125" customWidth="true"/>
+    <col min="3" max="3" width="8.140625" customWidth="true"/>
+    <col min="4" max="4" width="21.140625" customWidth="true"/>
+    <col min="5" max="5" width="21.140625" customWidth="true"/>
+    <col min="6" max="6" width="21.140625" customWidth="true"/>
+    <col min="7" max="7" width="13.140625" customWidth="true"/>
+    <col min="8" max="8" width="13.140625" customWidth="true"/>
+    <col min="9" max="9" width="13.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1319</v>
+        <v>1414</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1320</v>
+        <v>1415</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1322</v>
+        <v>1417</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1324</v>
+        <v>1419</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1325</v>
+        <v>1420</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1326</v>
+        <v>1421</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1327</v>
+        <v>1422</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1328</v>
+        <v>1423</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1329</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2">
@@ -5279,10 +5564,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1321</v>
+        <v>1416</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1323</v>
+        <v>1418</v>
       </c>
       <c r="D2" s="0">
         <v>35630550.210000016</v>
